--- a/acronimos_rev3.xlsx
+++ b/acronimos_rev3.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenji\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A0A55-1893-4029-9926-402B6540CE66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB8EC18-8D78-42C8-A94F-63E3382DC3B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8745" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCEE_TIPO_ACRONIMOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCEE_TIPO_ACRONIMOS!$A$1:$E$7533</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CCEE_TIPO_ACRONIMOS!$A$1:$E$7566</definedName>
     <definedName name="CCEE_TIPO_ACRONIMOS">CCEE_TIPO_ACRONIMOS!$A$1:$A$7294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15144" uniqueCount="7551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15164" uniqueCount="7565">
   <si>
     <t>NOME</t>
   </si>
@@ -22913,6 +22913,48 @@
   </si>
   <si>
     <t>Saldo remanescente Princ Parcelamento AMAZONAS ENERG</t>
+  </si>
+  <si>
+    <t>Deliberação CAd 0871/20 - RTR 3968</t>
+  </si>
+  <si>
+    <t>Ação 1008485- 93.2017.4.01.3400</t>
+  </si>
+  <si>
+    <t>Est. Atualizacao Monetaria Principal do GSF Jul/15</t>
+  </si>
+  <si>
+    <t>Estorno e Recalculo</t>
+  </si>
+  <si>
+    <t>Atm Monet GSF Jul/15 - RO 00512540720154013400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desligamento do agente OPM - Ref. Ago/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atm. Despacho 2982/16 - Estorno Juros Mora-Mar16 </t>
+  </si>
+  <si>
+    <t>Est - Repasse da Atm da inadim GSF Jul e Ago15</t>
+  </si>
+  <si>
+    <t>Repasse da Atm da inadim GSF Jul e Ago15</t>
+  </si>
+  <si>
+    <t>Est. Repasse da Atm da inadim GSF Jul e Ago15</t>
+  </si>
+  <si>
+    <t>Reversão da atm da inad de Jul Ago/15</t>
+  </si>
+  <si>
+    <t>Atualização Monet da Atm Inad Jul e Ago/2015</t>
+  </si>
+  <si>
+    <t>Est. Atualização Monetária - Fev16</t>
+  </si>
+  <si>
+    <t>Correção Aj Desligamento CERTEL Ref. Nov16</t>
   </si>
 </sst>
 </file>
@@ -23394,10 +23436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7566"/>
+  <dimension ref="A1:C7558"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A7535" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C7555" sqref="C7555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -83860,112 +83902,156 @@
       </c>
     </row>
     <row r="7545" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7545" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7545" t="s">
+        <v>7551</v>
+      </c>
       <c r="C7545" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7546" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7546" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7546" t="s">
+        <v>7552</v>
+      </c>
       <c r="C7546" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7547" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7547" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7547" t="s">
+        <v>7553</v>
+      </c>
       <c r="C7547" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7548" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7548" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7548" t="s">
+        <v>7554</v>
+      </c>
       <c r="C7548" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7549" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7549" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7549" t="s">
+        <v>7555</v>
+      </c>
       <c r="C7549" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7550" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7550" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7550" t="s">
+        <v>7556</v>
+      </c>
       <c r="C7550" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7551" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7551" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7551" t="s">
+        <v>7557</v>
+      </c>
       <c r="C7551" t="s">
         <v>7524</v>
       </c>
     </row>
     <row r="7552" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7552" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7552" t="s">
+        <v>7558</v>
+      </c>
       <c r="C7552" t="s">
         <v>7524</v>
       </c>
     </row>
-    <row r="7553" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7553" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7553" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7553" t="s">
+        <v>7559</v>
+      </c>
       <c r="C7553" t="s">
         <v>7524</v>
       </c>
     </row>
-    <row r="7554" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7554" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7554" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7554" t="s">
+        <v>7560</v>
+      </c>
       <c r="C7554" t="s">
         <v>7524</v>
       </c>
     </row>
-    <row r="7555" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7555" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7555" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7555" t="s">
+        <v>7561</v>
+      </c>
       <c r="C7555" t="s">
         <v>7524</v>
       </c>
     </row>
-    <row r="7556" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7556" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7556" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7556" t="s">
+        <v>7562</v>
+      </c>
       <c r="C7556" t="s">
         <v>7524</v>
       </c>
     </row>
-    <row r="7557" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7557" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7557" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7557" t="s">
+        <v>7563</v>
+      </c>
       <c r="C7557" t="s">
         <v>7524</v>
       </c>
     </row>
-    <row r="7558" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7558" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7558" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7558" t="s">
+        <v>7564</v>
+      </c>
       <c r="C7558" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7559" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7559" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7560" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7560" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7561" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7561" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7562" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7562" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7563" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7563" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7564" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7564" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7565" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7565" t="s">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="7566" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C7566" t="s">
         <v>7524</v>
       </c>
     </row>
@@ -84031,12 +84117,12 @@
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7425)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7511:A7544">
+  <conditionalFormatting sqref="A7511:A7558">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sem categoria">
       <formula>NOT(ISERROR(SEARCH("Sem categoria",A7511)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7511:A7544">
+  <conditionalFormatting sqref="A7511:A7558">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&quot;Sem categoria&quot;">
       <formula>NOT(ISERROR(SEARCH("""Sem categoria""",A7511)))</formula>
     </cfRule>
